--- a/output_baku/flights_without_transit.xlsx
+++ b/output_baku/flights_without_transit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="105">
   <si>
     <t>icao</t>
   </si>
@@ -94,6 +94,12 @@
     <t>LDZA</t>
   </si>
   <si>
+    <t>LFMN</t>
+  </si>
+  <si>
+    <t>LFPG</t>
+  </si>
+  <si>
     <t>LGAV</t>
   </si>
   <si>
@@ -118,6 +124,9 @@
     <t>OERK</t>
   </si>
   <si>
+    <t>OIII</t>
+  </si>
+  <si>
     <t>OKBK</t>
   </si>
   <si>
@@ -139,6 +148,9 @@
     <t>UMMS</t>
   </si>
   <si>
+    <t>UTTT</t>
+  </si>
+  <si>
     <t>UUEE</t>
   </si>
   <si>
@@ -184,6 +196,9 @@
     <t>HR</t>
   </si>
   <si>
+    <t>FR</t>
+  </si>
+  <si>
     <t>GR</t>
   </si>
   <si>
@@ -208,6 +223,9 @@
     <t>SA</t>
   </si>
   <si>
+    <t>IR</t>
+  </si>
+  <si>
     <t>KW</t>
   </si>
   <si>
@@ -229,6 +247,9 @@
     <t>BY</t>
   </si>
   <si>
+    <t>UZ</t>
+  </si>
+  <si>
     <t>RU</t>
   </si>
   <si>
@@ -256,40 +277,58 @@
     <t>CRJ9</t>
   </si>
   <si>
+    <t>GLF6</t>
+  </si>
+  <si>
+    <t>B737</t>
+  </si>
+  <si>
     <t>A319</t>
   </si>
   <si>
-    <t>B737</t>
+    <t>F2TH</t>
+  </si>
+  <si>
+    <t>GLF5</t>
+  </si>
+  <si>
+    <t>E35L</t>
+  </si>
+  <si>
+    <t>C560</t>
+  </si>
+  <si>
+    <t>P180</t>
+  </si>
+  <si>
+    <t>C56X</t>
+  </si>
+  <si>
+    <t>B734</t>
+  </si>
+  <si>
+    <t>A320</t>
+  </si>
+  <si>
+    <t>E190</t>
+  </si>
+  <si>
+    <t>GLF4</t>
   </si>
   <si>
     <t>A20N</t>
   </si>
   <si>
-    <t>C560</t>
-  </si>
-  <si>
-    <t>BE40</t>
-  </si>
-  <si>
-    <t>B734</t>
-  </si>
-  <si>
-    <t>A320</t>
-  </si>
-  <si>
-    <t>E190</t>
-  </si>
-  <si>
-    <t>B748</t>
+    <t>E75L</t>
+  </si>
+  <si>
+    <t>PC12</t>
+  </si>
+  <si>
+    <t>FA7X</t>
   </si>
   <si>
     <t>B763</t>
-  </si>
-  <si>
-    <t>E75L</t>
-  </si>
-  <si>
-    <t>FA7X</t>
   </si>
 </sst>
 </file>
@@ -647,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -711,13 +750,13 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E2">
         <v>4054.407076475219</v>
@@ -726,7 +765,7 @@
         <v>0.6078310146</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H2">
         <v>43947.14296766045</v>
@@ -764,13 +803,13 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E3">
         <v>3667.780015145217</v>
@@ -779,7 +818,7 @@
         <v>0.7209891808000001</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H3">
         <v>36431.84646260589</v>
@@ -817,13 +856,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E4">
         <v>2802.532790014392</v>
@@ -832,7 +871,7 @@
         <v>0.7038227721</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H4">
         <v>6101.016259733158</v>
@@ -870,46 +909,46 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E5">
         <v>4012.216574434825</v>
       </c>
       <c r="F5">
-        <v>0.6997836170333334</v>
+        <v>0.7145069886451613</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H5">
-        <v>10395.91125180166</v>
+        <v>6171.052980791756</v>
       </c>
       <c r="I5">
-        <v>32840.68364444144</v>
+        <v>19494.35636632116</v>
       </c>
       <c r="J5">
-        <v>102.5834306751267</v>
+        <v>58.83834408225397</v>
       </c>
       <c r="K5">
-        <v>1.235813609230849</v>
+        <v>0.5768231252424811</v>
       </c>
       <c r="L5">
-        <v>0.2079182250360331</v>
+        <v>0.1234210596158351</v>
       </c>
       <c r="M5">
-        <v>12786.97083971604</v>
+        <v>7590.395166373861</v>
       </c>
       <c r="N5">
-        <v>12.47509350216199</v>
+        <v>7.405263576950107</v>
       </c>
       <c r="O5">
-        <v>0.2545937449420814</v>
+        <v>0.1511278281010226</v>
       </c>
       <c r="P5">
         <v>51.4775</v>
@@ -923,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E6">
         <v>3652.722583712451</v>
@@ -938,7 +977,7 @@
         <v>0.7240185472</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H6">
         <v>36229.14522717062</v>
@@ -976,13 +1015,13 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>3545.0421684007</v>
@@ -991,7 +1030,7 @@
         <v>0.7186112911612903</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H7">
         <v>8925.957051820915</v>
@@ -1029,13 +1068,13 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E8">
         <v>3452.606850940573</v>
@@ -1044,7 +1083,7 @@
         <v>0.7192953415806452</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H8">
         <v>33293.40558197416</v>
@@ -1082,13 +1121,13 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <v>2621.707163610507</v>
@@ -1097,7 +1136,7 @@
         <v>0.7170151735161291</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H9">
         <v>7892.722245013249</v>
@@ -1135,13 +1174,13 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>2804.951605011117</v>
@@ -1150,7 +1189,7 @@
         <v>0.7088717159333333</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H10">
         <v>7632.447317737308</v>
@@ -1188,52 +1227,52 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E11">
-        <v>2263.774140762789</v>
+        <v>3523.251517587449</v>
       </c>
       <c r="F11">
-        <v>0.7145069886451613</v>
+        <v>0.7135949214193548</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H11">
-        <v>6595.359410518415</v>
+        <v>3163.501762240177</v>
       </c>
       <c r="I11">
-        <v>20834.74037782767</v>
+        <v>9993.502066916721</v>
       </c>
       <c r="J11">
-        <v>73.64016154352225</v>
+        <v>29.64432924561716</v>
       </c>
       <c r="K11">
-        <v>0.6909445732272366</v>
+        <v>0.02820897549785035</v>
       </c>
       <c r="L11">
-        <v>0.1319071882103683</v>
+        <v>0.06327003524480354</v>
       </c>
       <c r="M11">
-        <v>8112.29207493765</v>
+        <v>3891.107167555418</v>
       </c>
       <c r="N11">
-        <v>7.914431292622096</v>
+        <v>3.796202114688213</v>
       </c>
       <c r="O11">
-        <v>0.1615190059718795</v>
+        <v>0.0774735125446574</v>
       </c>
       <c r="P11">
-        <v>37.9364</v>
+        <v>43.6584</v>
       </c>
       <c r="Q11">
-        <v>23.9445</v>
+        <v>7.21587</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1241,52 +1280,52 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E12">
-        <v>2570.193766944667</v>
+        <v>3813.218422547855</v>
       </c>
       <c r="F12">
-        <v>0.7219989696000001</v>
+        <v>0.7240185472</v>
       </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H12">
-        <v>6500.441762618544</v>
+        <v>5715.138939090579</v>
       </c>
       <c r="I12">
-        <v>20534.89552811198</v>
+        <v>18054.12390858713</v>
       </c>
       <c r="J12">
-        <v>73.92599921416642</v>
+        <v>51.19253404996307</v>
       </c>
       <c r="K12">
-        <v>0.368401070893249</v>
+        <v>0.8905991362909778</v>
       </c>
       <c r="L12">
-        <v>0.1300088352523709</v>
+        <v>0.1143027787818116</v>
       </c>
       <c r="M12">
-        <v>7995.54336802081</v>
+        <v>7029.620895081413</v>
       </c>
       <c r="N12">
-        <v>7.800530115142252</v>
+        <v>6.858166726908694</v>
       </c>
       <c r="O12">
-        <v>0.1591944921457603</v>
+        <v>0.1399625862634427</v>
       </c>
       <c r="P12">
-        <v>47.4298</v>
+        <v>49.0097</v>
       </c>
       <c r="Q12">
-        <v>19.2611</v>
+        <v>2.54778</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1294,52 +1333,52 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E13">
-        <v>1650.719407574504</v>
+        <v>2263.774140762789</v>
       </c>
       <c r="F13">
-        <v>0.714050955032258</v>
+        <v>0.7145069886451613</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H13">
-        <v>1522.681504782991</v>
+        <v>6595.359410518415</v>
       </c>
       <c r="I13">
-        <v>4810.150873609467</v>
+        <v>20834.74037782767</v>
       </c>
       <c r="J13">
-        <v>9.888535356614405</v>
+        <v>73.64016154352225</v>
       </c>
       <c r="K13">
-        <v>7.553781653302346</v>
+        <v>0.6909445732272366</v>
       </c>
       <c r="L13">
-        <v>0.03045363009565982</v>
+        <v>0.1319071882103683</v>
       </c>
       <c r="M13">
-        <v>1872.898250883079</v>
+        <v>8112.29207493765</v>
       </c>
       <c r="N13">
-        <v>1.827217805739589</v>
+        <v>7.914431292622096</v>
       </c>
       <c r="O13">
-        <v>0.03729015930080794</v>
+        <v>0.1615190059718795</v>
       </c>
       <c r="P13">
-        <v>32.0114</v>
+        <v>37.9364</v>
       </c>
       <c r="Q13">
-        <v>34.8867</v>
+        <v>23.9445</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1347,52 +1386,52 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E14">
-        <v>1792.860919822941</v>
+        <v>2570.193766944667</v>
       </c>
       <c r="F14">
-        <v>0.7181552575483872</v>
+        <v>0.7174712071290322</v>
       </c>
       <c r="G14" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H14">
-        <v>1173.779258893444</v>
+        <v>3425.603781861962</v>
       </c>
       <c r="I14">
-        <v>3707.96867884439</v>
+        <v>10821.48234690194</v>
       </c>
       <c r="J14">
-        <v>7.528099203654408</v>
+        <v>35.11285495353553</v>
       </c>
       <c r="K14">
-        <v>10.02824005836576</v>
+        <v>0.2720098782377304</v>
       </c>
       <c r="L14">
-        <v>0.02347558517786889</v>
+        <v>0.06851207563723924</v>
       </c>
       <c r="M14">
-        <v>1443.748488438936</v>
+        <v>4213.492651690213</v>
       </c>
       <c r="N14">
-        <v>1.408535110672133</v>
+        <v>4.110724538234354</v>
       </c>
       <c r="O14">
-        <v>0.02874561450351291</v>
+        <v>0.08389233751498681</v>
       </c>
       <c r="P14">
-        <v>41.2753</v>
+        <v>47.4298</v>
       </c>
       <c r="Q14">
-        <v>28.7519</v>
+        <v>19.2611</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1400,52 +1439,52 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E15">
-        <v>2471.722852591821</v>
+        <v>1650.719407574504</v>
       </c>
       <c r="F15">
-        <v>0.7192953415806452</v>
+        <v>0.714050955032258</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H15">
-        <v>6906.490194384125</v>
+        <v>1522.681504782991</v>
       </c>
       <c r="I15">
-        <v>21817.60252405945</v>
+        <v>4810.150873609467</v>
       </c>
       <c r="J15">
-        <v>86.13637242702939</v>
+        <v>9.888535356614405</v>
       </c>
       <c r="K15">
-        <v>0.4156427071906287</v>
+        <v>7.553781653302346</v>
       </c>
       <c r="L15">
-        <v>0.1381298038876825</v>
+        <v>0.03045363009565982</v>
       </c>
       <c r="M15">
-        <v>8494.982939092475</v>
+        <v>1872.898250883079</v>
       </c>
       <c r="N15">
-        <v>8.287788233260951</v>
+        <v>1.827217805739589</v>
       </c>
       <c r="O15">
-        <v>0.1691385353726724</v>
+        <v>0.03729015930080794</v>
       </c>
       <c r="P15">
-        <v>44.8184</v>
+        <v>32.0114</v>
       </c>
       <c r="Q15">
-        <v>20.3091</v>
+        <v>34.8867</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1453,52 +1492,52 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E16">
-        <v>2731.473791385969</v>
+        <v>1792.860919822941</v>
       </c>
       <c r="F16">
-        <v>0.7038227721</v>
+        <v>0.7163311230967742</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H16">
-        <v>8855.472297375947</v>
+        <v>887.0607487160976</v>
       </c>
       <c r="I16">
-        <v>27974.43698741061</v>
+        <v>2802.224905194152</v>
       </c>
       <c r="J16">
-        <v>97.19482839106935</v>
+        <v>13.43009973556172</v>
       </c>
       <c r="K16">
-        <v>1.018306065234996</v>
+        <v>0.4612715893323708</v>
       </c>
       <c r="L16">
-        <v>0.1771094459475189</v>
+        <v>0.01774121497432195</v>
       </c>
       <c r="M16">
-        <v>10892.23092577242</v>
+        <v>1091.0847209208</v>
       </c>
       <c r="N16">
-        <v>10.62656675685114</v>
+        <v>1.064472898459317</v>
       </c>
       <c r="O16">
-        <v>0.2168687093234926</v>
+        <v>0.02172393670325137</v>
       </c>
       <c r="P16">
-        <v>48.1702</v>
+        <v>41.2753</v>
       </c>
       <c r="Q16">
-        <v>17.2127</v>
+        <v>28.7519</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1506,52 +1545,52 @@
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E17">
-        <v>1575.538955378042</v>
+        <v>2471.722852591821</v>
       </c>
       <c r="F17">
-        <v>0.5386263431290322</v>
+        <v>0.7179272407419355</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H17">
-        <v>6489.074659104964</v>
+        <v>2035.694091643185</v>
       </c>
       <c r="I17">
-        <v>20498.98684811258</v>
+        <v>6430.75763550082</v>
       </c>
       <c r="J17">
-        <v>80.18738480150665</v>
+        <v>30.82040854747783</v>
       </c>
       <c r="K17">
-        <v>0.478495966631764</v>
+        <v>1.058560927654456</v>
       </c>
       <c r="L17">
-        <v>0.1297814931820993</v>
+        <v>0.04071388183286369</v>
       </c>
       <c r="M17">
-        <v>7981.561830699104</v>
+        <v>2503.903732721118</v>
       </c>
       <c r="N17">
-        <v>7.786889590925954</v>
+        <v>2.442832909971822</v>
       </c>
       <c r="O17">
-        <v>0.1589161141005297</v>
+        <v>0.04985373285656779</v>
       </c>
       <c r="P17">
-        <v>26.2708</v>
+        <v>44.8184</v>
       </c>
       <c r="Q17">
-        <v>50.6336</v>
+        <v>20.3091</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1559,52 +1598,52 @@
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E18">
-        <v>1748.073983263764</v>
+        <v>2731.473791385969</v>
       </c>
       <c r="F18">
-        <v>0.5435416204</v>
+        <v>0.7038227721</v>
       </c>
       <c r="G18" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H18">
-        <v>4599.999158670345</v>
+        <v>8855.472297375947</v>
       </c>
       <c r="I18">
-        <v>14531.39734223962</v>
+        <v>27974.43698741061</v>
       </c>
       <c r="J18">
-        <v>49.0051621884025</v>
+        <v>97.19482839106935</v>
       </c>
       <c r="K18">
-        <v>2.267673656723539</v>
+        <v>1.018306065234996</v>
       </c>
       <c r="L18">
-        <v>0.09199998317340689</v>
+        <v>0.1771094459475189</v>
       </c>
       <c r="M18">
-        <v>5657.998965164525</v>
+        <v>10892.23092577242</v>
       </c>
       <c r="N18">
-        <v>5.519998990404414</v>
+        <v>10.62656675685114</v>
       </c>
       <c r="O18">
-        <v>0.1126530406204982</v>
+        <v>0.2168687093234926</v>
       </c>
       <c r="P18">
-        <v>24.9578</v>
+        <v>48.1702</v>
       </c>
       <c r="Q18">
-        <v>46.6989</v>
+        <v>17.2127</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1612,52 +1651,52 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E19">
-        <v>1261.336729084136</v>
+        <v>1575.538955378042</v>
       </c>
       <c r="F19">
-        <v>0.5412673876</v>
+        <v>0.5386263431290322</v>
       </c>
       <c r="G19" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="H19">
-        <v>3299.713860104429</v>
+        <v>6489.074659104964</v>
       </c>
       <c r="I19">
-        <v>10423.79608406989</v>
+        <v>20498.98684811258</v>
       </c>
       <c r="J19">
-        <v>48.17542348523524</v>
+        <v>80.18738480150665</v>
       </c>
       <c r="K19">
-        <v>0.2089247864139417</v>
+        <v>0.478495966631764</v>
       </c>
       <c r="L19">
-        <v>0.06599427720208857</v>
+        <v>0.1297814931820993</v>
       </c>
       <c r="M19">
-        <v>4058.648047928448</v>
+        <v>7981.561830699104</v>
       </c>
       <c r="N19">
-        <v>3.959656632125314</v>
+        <v>7.786889590925954</v>
       </c>
       <c r="O19">
-        <v>0.08080931902296559</v>
+        <v>0.1589161141005297</v>
       </c>
       <c r="P19">
-        <v>29.2266</v>
+        <v>26.2708</v>
       </c>
       <c r="Q19">
-        <v>47.9689</v>
+        <v>50.6336</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1665,52 +1704,52 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E20">
-        <v>1829.386950939027</v>
+        <v>1748.073983263764</v>
       </c>
       <c r="F20">
         <v>0.5435416204</v>
       </c>
       <c r="G20" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H20">
-        <v>20795.15991131873</v>
+        <v>4599.999158670345</v>
       </c>
       <c r="I20">
-        <v>65691.91015985586</v>
+        <v>14531.39734223962</v>
       </c>
       <c r="J20">
-        <v>285.1547223858357</v>
+        <v>49.0051621884025</v>
       </c>
       <c r="K20">
-        <v>1.5379194538156</v>
+        <v>2.267673656723539</v>
       </c>
       <c r="L20">
-        <v>0.4159031982263744</v>
+        <v>0.09199998317340689</v>
       </c>
       <c r="M20">
-        <v>25578.04669092203</v>
+        <v>5657.998965164525</v>
       </c>
       <c r="N20">
-        <v>24.95419189358246</v>
+        <v>5.519998990404414</v>
       </c>
       <c r="O20">
-        <v>0.5092692223180096</v>
+        <v>0.1126530406204982</v>
       </c>
       <c r="P20">
-        <v>24.433</v>
+        <v>24.9578</v>
       </c>
       <c r="Q20">
-        <v>54.6511</v>
+        <v>46.6989</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1718,52 +1757,52 @@
         <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E21">
-        <v>1691.373284619649</v>
+        <v>541.8824184898115</v>
       </c>
       <c r="F21">
-        <v>0.5375992702903226</v>
+        <v>0.5425308502666667</v>
       </c>
       <c r="G21" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="H21">
-        <v>4869.212608014323</v>
+        <v>1226.093411789135</v>
       </c>
       <c r="I21">
-        <v>15381.84262871724</v>
+        <v>3873.229087841878</v>
       </c>
       <c r="J21">
-        <v>65.05527887766497</v>
+        <v>14.51762544238132</v>
       </c>
       <c r="K21">
-        <v>0.3160521881469081</v>
+        <v>21.89883636474594</v>
       </c>
       <c r="L21">
-        <v>0.09738425216028643</v>
+        <v>0.0245218682357827</v>
       </c>
       <c r="M21">
-        <v>5989.131507857616</v>
+        <v>1508.094896500636</v>
       </c>
       <c r="N21">
-        <v>5.843055129617186</v>
+        <v>1.471312094146962</v>
       </c>
       <c r="O21">
-        <v>0.119246023053412</v>
+        <v>0.03002677743157066</v>
       </c>
       <c r="P21">
-        <v>25.2731</v>
+        <v>35.6892</v>
       </c>
       <c r="Q21">
-        <v>51.6081</v>
+        <v>51.3134</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1771,52 +1810,52 @@
         <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E22">
-        <v>6412.769225176844</v>
+        <v>1261.336729084136</v>
       </c>
       <c r="F22">
-        <v>0.6553428445806452</v>
+        <v>0.5412673876</v>
       </c>
       <c r="G22" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="H22">
-        <v>66658.97421245667</v>
+        <v>3299.713860104429</v>
       </c>
       <c r="I22">
-        <v>210575.6995371506</v>
+        <v>10423.79608406989</v>
       </c>
       <c r="J22">
-        <v>912.5926662531691</v>
+        <v>48.17542348523524</v>
       </c>
       <c r="K22">
-        <v>7.544914267232432</v>
+        <v>0.2089247864139417</v>
       </c>
       <c r="L22">
-        <v>1.333179484249133</v>
+        <v>0.06599427720208857</v>
       </c>
       <c r="M22">
-        <v>81990.5382813217</v>
+        <v>4058.648047928448</v>
       </c>
       <c r="N22">
-        <v>79.990769054948</v>
+        <v>3.959656632125314</v>
       </c>
       <c r="O22">
-        <v>1.632464674590776</v>
+        <v>0.08080931902296559</v>
       </c>
       <c r="P22">
-        <v>37.4633</v>
+        <v>29.2266</v>
       </c>
       <c r="Q22">
-        <v>126.44</v>
+        <v>47.9689</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1824,52 +1863,52 @@
         <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E23">
-        <v>0.0001414369003919547</v>
+        <v>1829.386950939027</v>
       </c>
       <c r="F23">
-        <v>0.6522217394193548</v>
+        <v>0.5372569126774194</v>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H23">
-        <v>4507.50352687804</v>
+        <v>3808.605693427</v>
       </c>
       <c r="I23">
-        <v>14239.20364140773</v>
+        <v>12031.38538553589</v>
       </c>
       <c r="J23">
-        <v>77.83669922685847</v>
+        <v>41.50280119574938</v>
       </c>
       <c r="K23">
-        <v>1.116040408153385</v>
+        <v>28.79616705418669</v>
       </c>
       <c r="L23">
-        <v>0.09015007053756079</v>
+        <v>0.07617211386854</v>
       </c>
       <c r="M23">
-        <v>5544.22933805999</v>
+        <v>4684.58500291521</v>
       </c>
       <c r="N23">
-        <v>5.409004232253648</v>
+        <v>4.5703268321124</v>
       </c>
       <c r="O23">
-        <v>0.1103878414745642</v>
+        <v>0.09327197616555917</v>
       </c>
       <c r="P23">
-        <v>40.4675</v>
+        <v>24.433</v>
       </c>
       <c r="Q23">
-        <v>50.0467</v>
+        <v>54.6511</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1877,52 +1916,52 @@
         <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E24">
-        <v>448.2158836896862</v>
+        <v>1691.373284619649</v>
       </c>
       <c r="F24">
-        <v>0.6603861536666666</v>
+        <v>0.5276219913333333</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H24">
-        <v>1180.521681246313</v>
+        <v>2947.473359825519</v>
       </c>
       <c r="I24">
-        <v>3729.267991057104</v>
+        <v>9311.068343688816</v>
       </c>
       <c r="J24">
-        <v>14.31965042673546</v>
+        <v>29.60178191597726</v>
       </c>
       <c r="K24">
-        <v>1.712363153869069</v>
+        <v>0.8897256801037836</v>
       </c>
       <c r="L24">
-        <v>0.02361043362492626</v>
+        <v>0.05894946719651038</v>
       </c>
       <c r="M24">
-        <v>1452.041667932966</v>
+        <v>3625.392232585389</v>
       </c>
       <c r="N24">
-        <v>1.416626017495576</v>
+        <v>3.536968031790623</v>
       </c>
       <c r="O24">
-        <v>0.02891073505093012</v>
+        <v>0.07218302105695149</v>
       </c>
       <c r="P24">
-        <v>41.6692</v>
+        <v>25.2731</v>
       </c>
       <c r="Q24">
-        <v>44.9547</v>
+        <v>51.6081</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1930,52 +1969,52 @@
         <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E25">
-        <v>2221.231616701621</v>
+        <v>6412.769225176844</v>
       </c>
       <c r="F25">
-        <v>0.6585432156666666</v>
+        <v>0.6553428445806452</v>
       </c>
       <c r="G25" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H25">
-        <v>4257.691973826791</v>
+        <v>66658.97421245667</v>
       </c>
       <c r="I25">
-        <v>13450.04894531883</v>
+        <v>210575.6995371506</v>
       </c>
       <c r="J25">
-        <v>45.19924369942716</v>
+        <v>912.5926662531691</v>
       </c>
       <c r="K25">
-        <v>0.146577723426899</v>
+        <v>7.544914267232432</v>
       </c>
       <c r="L25">
-        <v>0.08515383947653579</v>
+        <v>1.333179484249133</v>
       </c>
       <c r="M25">
-        <v>5236.961127806952</v>
+        <v>81990.5382813217</v>
       </c>
       <c r="N25">
-        <v>5.109230368592147</v>
+        <v>79.990769054948</v>
       </c>
       <c r="O25">
-        <v>0.1042700075222887</v>
+        <v>1.632464674590776</v>
       </c>
       <c r="P25">
-        <v>53.8825</v>
+        <v>37.4633</v>
       </c>
       <c r="Q25">
-        <v>28.0307</v>
+        <v>126.44</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1983,52 +2022,52 @@
         <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E26">
-        <v>1955.976069391234</v>
+        <v>0.0001414369003919547</v>
       </c>
       <c r="F26">
-        <v>0.6549266972258064</v>
+        <v>0.65055715</v>
       </c>
       <c r="G26" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H26">
-        <v>2744.721784483551</v>
+        <v>467.0156972516419</v>
       </c>
       <c r="I26">
-        <v>8670.576117183538</v>
+        <v>1475.302587617937</v>
       </c>
       <c r="J26">
-        <v>30.29747835569004</v>
+        <v>4.364633853469201</v>
       </c>
       <c r="K26">
-        <v>0.3409000352305999</v>
+        <v>6.242872322207996</v>
       </c>
       <c r="L26">
-        <v>0.05489443568967103</v>
+        <v>0.009340313945032836</v>
       </c>
       <c r="M26">
-        <v>3376.007794914769</v>
+        <v>574.4293076195195</v>
       </c>
       <c r="N26">
-        <v>3.293666141380261</v>
+        <v>0.5604188367019702</v>
       </c>
       <c r="O26">
-        <v>0.06721767635469922</v>
+        <v>0.01143711911636674</v>
       </c>
       <c r="P26">
-        <v>55.9728</v>
+        <v>40.4675</v>
       </c>
       <c r="Q26">
-        <v>37.4147</v>
+        <v>50.0467</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2036,52 +2075,52 @@
         <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E27">
-        <v>4181.848401801211</v>
+        <v>448.2158836896862</v>
       </c>
       <c r="F27">
-        <v>0.6385780525666667</v>
+        <v>0.6603861536666666</v>
       </c>
       <c r="G27" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="H27">
-        <v>46329.65624615233</v>
+        <v>1180.521681246313</v>
       </c>
       <c r="I27">
-        <v>146355.3840815952</v>
+        <v>3729.267991057104</v>
       </c>
       <c r="J27">
-        <v>614.0187173840868</v>
+        <v>14.31965042673546</v>
       </c>
       <c r="K27">
-        <v>8.140041238471953</v>
+        <v>1.712363153869069</v>
       </c>
       <c r="L27">
-        <v>0.9265931249230464</v>
+        <v>0.02361043362492626</v>
       </c>
       <c r="M27">
-        <v>56985.47718276735</v>
+        <v>1452.041667932966</v>
       </c>
       <c r="N27">
-        <v>55.59558749538279</v>
+        <v>1.416626017495576</v>
       </c>
       <c r="O27">
-        <v>1.134603826436383</v>
+        <v>0.02891073505093012</v>
       </c>
       <c r="P27">
-        <v>23.8433</v>
+        <v>41.6692</v>
       </c>
       <c r="Q27">
-        <v>90.3978</v>
+        <v>44.9547</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2089,52 +2128,52 @@
         <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
         <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E28">
-        <v>2797.089448870759</v>
+        <v>2221.231616701621</v>
       </c>
       <c r="F28">
-        <v>0.6404209906333334</v>
+        <v>0.6585432156666666</v>
       </c>
       <c r="G28" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="H28">
-        <v>32013.62419526062</v>
+        <v>4257.691973826791</v>
       </c>
       <c r="I28">
-        <v>101131.0388328283</v>
+        <v>13450.04894531883</v>
       </c>
       <c r="J28">
-        <v>420.8527224385067</v>
+        <v>45.19924369942716</v>
       </c>
       <c r="K28">
-        <v>6.827663388548187</v>
+        <v>0.146577723426899</v>
       </c>
       <c r="L28">
-        <v>0.6402724839052123</v>
+        <v>0.08515383947653579</v>
       </c>
       <c r="M28">
-        <v>39376.75776017056</v>
+        <v>5236.961127806952</v>
       </c>
       <c r="N28">
-        <v>38.41634903431274</v>
+        <v>5.109230368592147</v>
       </c>
       <c r="O28">
-        <v>0.7840071231492396</v>
+        <v>0.1042700075222887</v>
       </c>
       <c r="P28">
-        <v>28.5665</v>
+        <v>53.8825</v>
       </c>
       <c r="Q28">
-        <v>77.1031</v>
+        <v>28.0307</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2142,52 +2181,52 @@
         <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E29">
-        <v>5640.137529164778</v>
+        <v>1620.709863399921</v>
       </c>
       <c r="F29">
-        <v>0.6441068667666667</v>
+        <v>0.6594646846666666</v>
       </c>
       <c r="G29" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="H29">
-        <v>63970.68000363656</v>
+        <v>579.8412362433346</v>
       </c>
       <c r="I29">
-        <v>202083.3781314879</v>
+        <v>1831.718465292694</v>
       </c>
       <c r="J29">
-        <v>844.9937224751176</v>
+        <v>8.778796316724085</v>
       </c>
       <c r="K29">
-        <v>10.36040938721713</v>
+        <v>0.301517442846534</v>
       </c>
       <c r="L29">
-        <v>1.279413600072731</v>
+        <v>0.01159682472486669</v>
       </c>
       <c r="M29">
-        <v>78683.93640447297</v>
+        <v>713.2047205793014</v>
       </c>
       <c r="N29">
-        <v>76.76481600436387</v>
+        <v>0.6958094834920014</v>
       </c>
       <c r="O29">
-        <v>1.566628898048242</v>
+        <v>0.01420019354065309</v>
       </c>
       <c r="P29">
-        <v>21.2212</v>
+        <v>41.2579</v>
       </c>
       <c r="Q29">
-        <v>105.807</v>
+        <v>69.2812</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2195,52 +2234,52 @@
         <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E30">
-        <v>6937.169225619456</v>
+        <v>1955.976069391234</v>
       </c>
       <c r="F30">
-        <v>0.6413424596666667</v>
+        <v>0.6549266972258064</v>
       </c>
       <c r="G30" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="H30">
-        <v>73853.70642461209</v>
+        <v>2744.721784483551</v>
       </c>
       <c r="I30">
-        <v>233303.8585953495</v>
+        <v>8670.576117183538</v>
       </c>
       <c r="J30">
-        <v>989.6352945816861</v>
+        <v>30.29747835569004</v>
       </c>
       <c r="K30">
-        <v>11.38404992131045</v>
+        <v>0.3409000352305999</v>
       </c>
       <c r="L30">
-        <v>1.477074128492241</v>
+        <v>0.05489443568967103</v>
       </c>
       <c r="M30">
-        <v>90840.05890227285</v>
+        <v>3376.007794914769</v>
       </c>
       <c r="N30">
-        <v>88.62444770953449</v>
+        <v>3.293666141380261</v>
       </c>
       <c r="O30">
-        <v>1.808662198153765</v>
+        <v>0.06721767635469922</v>
       </c>
       <c r="P30">
-        <v>1.35019</v>
+        <v>55.9728</v>
       </c>
       <c r="Q30">
-        <v>103.994</v>
+        <v>37.4147</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2248,51 +2287,263 @@
         <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
         <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E31">
+        <v>4181.848401801211</v>
+      </c>
+      <c r="F31">
+        <v>0.6385780525666667</v>
+      </c>
+      <c r="G31" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31">
+        <v>46329.65624615233</v>
+      </c>
+      <c r="I31">
+        <v>146355.3840815952</v>
+      </c>
+      <c r="J31">
+        <v>614.0187173840868</v>
+      </c>
+      <c r="K31">
+        <v>8.140041238471953</v>
+      </c>
+      <c r="L31">
+        <v>0.9265931249230464</v>
+      </c>
+      <c r="M31">
+        <v>56985.47718276735</v>
+      </c>
+      <c r="N31">
+        <v>55.59558749538279</v>
+      </c>
+      <c r="O31">
+        <v>1.134603826436383</v>
+      </c>
+      <c r="P31">
+        <v>23.8433</v>
+      </c>
+      <c r="Q31">
+        <v>90.3978</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32">
+        <v>2797.089448870759</v>
+      </c>
+      <c r="F32">
+        <v>0.6404209906333334</v>
+      </c>
+      <c r="G32" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32">
+        <v>32013.62419526062</v>
+      </c>
+      <c r="I32">
+        <v>101131.0388328283</v>
+      </c>
+      <c r="J32">
+        <v>420.8527224385067</v>
+      </c>
+      <c r="K32">
+        <v>6.827663388548187</v>
+      </c>
+      <c r="L32">
+        <v>0.6402724839052123</v>
+      </c>
+      <c r="M32">
+        <v>39376.75776017056</v>
+      </c>
+      <c r="N32">
+        <v>38.41634903431274</v>
+      </c>
+      <c r="O32">
+        <v>0.7840071231492396</v>
+      </c>
+      <c r="P32">
+        <v>28.5665</v>
+      </c>
+      <c r="Q32">
+        <v>77.1031</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33">
+        <v>5640.137529164778</v>
+      </c>
+      <c r="F33">
+        <v>0.6441068667666667</v>
+      </c>
+      <c r="G33" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33">
+        <v>63970.68000363656</v>
+      </c>
+      <c r="I33">
+        <v>202083.3781314879</v>
+      </c>
+      <c r="J33">
+        <v>844.9937224751176</v>
+      </c>
+      <c r="K33">
+        <v>10.36040938721713</v>
+      </c>
+      <c r="L33">
+        <v>1.279413600072731</v>
+      </c>
+      <c r="M33">
+        <v>78683.93640447297</v>
+      </c>
+      <c r="N33">
+        <v>76.76481600436387</v>
+      </c>
+      <c r="O33">
+        <v>1.566628898048242</v>
+      </c>
+      <c r="P33">
+        <v>21.2212</v>
+      </c>
+      <c r="Q33">
+        <v>105.807</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34">
+        <v>6937.169225619456</v>
+      </c>
+      <c r="F34">
+        <v>0.6413424596666667</v>
+      </c>
+      <c r="G34" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34">
+        <v>73853.70642461209</v>
+      </c>
+      <c r="I34">
+        <v>233303.8585953495</v>
+      </c>
+      <c r="J34">
+        <v>989.6352945816861</v>
+      </c>
+      <c r="K34">
+        <v>11.38404992131045</v>
+      </c>
+      <c r="L34">
+        <v>1.477074128492241</v>
+      </c>
+      <c r="M34">
+        <v>90840.05890227285</v>
+      </c>
+      <c r="N34">
+        <v>88.62444770953449</v>
+      </c>
+      <c r="O34">
+        <v>1.808662198153765</v>
+      </c>
+      <c r="P34">
+        <v>1.35019</v>
+      </c>
+      <c r="Q34">
+        <v>103.994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35">
         <v>5517.815244802649</v>
       </c>
-      <c r="F31">
+      <c r="F35">
         <v>0.6557589919354838</v>
       </c>
-      <c r="G31" t="s">
-        <v>89</v>
-      </c>
-      <c r="H31">
+      <c r="G35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35">
         <v>30837.40207515515</v>
       </c>
-      <c r="I31">
+      <c r="I35">
         <v>97415.35315541511</v>
       </c>
-      <c r="J31">
+      <c r="J35">
         <v>421.2710875078731</v>
       </c>
-      <c r="K31">
+      <c r="K35">
         <v>2.969051414789047</v>
       </c>
-      <c r="L31">
+      <c r="L35">
         <v>0.6167480415031028</v>
       </c>
-      <c r="M31">
+      <c r="M35">
         <v>37930.00455244083</v>
       </c>
-      <c r="N31">
+      <c r="N35">
         <v>37.00488249018617</v>
       </c>
-      <c r="O31">
+      <c r="O35">
         <v>0.7552016834731872</v>
       </c>
-      <c r="P31">
+      <c r="P35">
         <v>40.0725</v>
       </c>
-      <c r="Q31">
+      <c r="Q35">
         <v>116.598</v>
       </c>
     </row>
